--- a/meals.xlsx
+++ b/meals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/184f4f0770b82ffb/Documents/Family^J Plans^J Notes^J Letters/meals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjenk\Documents\personal_github_repos\meal_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{98EA66D6-80AC-47DF-AD53-01FBED3B2711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6468B4B2-D6D2-4B73-8E74-AD30B6887FF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A80156-1478-4E46-B690-64CE2D118427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meal_df" sheetId="3" r:id="rId1"/>
@@ -238,9 +238,6 @@
     <t>pastry</t>
   </si>
   <si>
-    <t>briochebuns</t>
-  </si>
-  <si>
     <t>spinach</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>cereal bars</t>
+  </si>
+  <si>
+    <t>brioche buns</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -480,10 +480,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,20 +762,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C13BDF-8798-44AF-B45C-20D131201920}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -802,7 +801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -826,11 +825,11 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -855,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">A3+1</f>
         <v>3</v>
@@ -884,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -913,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -942,10 +941,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -971,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1000,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1029,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1057,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1085,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1113,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1141,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1169,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1197,10 +1196,10 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1225,10 +1224,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1253,10 +1252,10 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1281,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1309,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1337,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1365,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1393,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1421,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H24" s="4"/>
     </row>
   </sheetData>
@@ -1438,20 +1437,20 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -1471,7 +1470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1511,7 +1510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1571,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1599,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1648,24 +1647,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA2BBE-22FA-49B0-A85E-6A89C35AFE49}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -1674,12 +1673,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -1688,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1703,13 +1702,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A60" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1719,13 +1718,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -1735,13 +1734,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1750,13 +1749,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -1765,7 +1764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1780,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1795,13 +1794,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>54</v>
@@ -1810,13 +1809,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -1826,13 +1825,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -1842,13 +1841,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>56</v>
@@ -1857,13 +1856,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1872,7 +1871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1887,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1902,13 +1901,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1917,13 +1916,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -1932,13 +1931,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" t="s">
         <v>58</v>
@@ -1947,13 +1946,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -1962,7 +1961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1977,7 +1976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1992,13 +1991,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
         <v>54</v>
@@ -2007,13 +2006,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -2022,13 +2021,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2037,13 +2036,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -2052,7 +2051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2067,7 +2066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2082,13 +2081,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -2097,13 +2096,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2112,7 +2111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2127,13 +2126,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -2143,7 +2142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2158,13 +2157,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -2173,13 +2172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -2188,13 +2187,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -2203,13 +2202,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2219,7 +2218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2234,13 +2233,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -2249,7 +2248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2264,7 +2263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2279,13 +2278,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>54</v>
@@ -2294,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2309,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2324,7 +2323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2339,13 +2338,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -2354,13 +2353,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2369,13 +2368,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>54</v>
@@ -2384,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2399,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2414,13 +2413,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -2429,7 +2428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2444,13 +2443,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>54</v>
@@ -2459,13 +2458,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -2474,13 +2473,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -2489,13 +2488,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C56" t="s">
         <v>54</v>
@@ -2504,13 +2503,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -2519,13 +2518,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
         <v>54</v>
@@ -2534,13 +2533,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -2549,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>

--- a/meals.xlsx
+++ b/meals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjenk\Documents\personal_github_repos\meal_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A80156-1478-4E46-B690-64CE2D118427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7DD74-5A12-4F7B-AE6F-9E62BB1D5297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="126">
   <si>
     <t>meal_id</t>
   </si>
@@ -280,15 +280,9 @@
     <t>soy/teriyakisauce</t>
   </si>
   <si>
-    <t>bread crumbs</t>
-  </si>
-  <si>
     <t>cherry tomatoes</t>
   </si>
   <si>
-    <t>crème fraiche</t>
-  </si>
-  <si>
     <t>curry sauce jar</t>
   </si>
   <si>
@@ -325,18 +319,12 @@
     <t>food_name</t>
   </si>
   <si>
-    <t>chicken,pasta,crème fraiche,peas,broccoli,lemon juice,mushrooms</t>
-  </si>
-  <si>
     <t>pasta,bacon,cheese,breadcrumbs,flour,garlic bread</t>
   </si>
   <si>
     <t>sausages,potatoes,flour,eggs,peas</t>
   </si>
   <si>
-    <t>prawns,pasta,crème fraiche,lemon juice,peas,broccoli,mushrooms,onions</t>
-  </si>
-  <si>
     <t>gammon joint,potatoes,peas,sweetcorn,gravy granules</t>
   </si>
   <si>
@@ -419,6 +407,18 @@
   </si>
   <si>
     <t>brioche buns</t>
+  </si>
+  <si>
+    <t>creme fraiche</t>
+  </si>
+  <si>
+    <t>chicken,pasta,creme fraiche,peas,broccoli,lemon juice,mushrooms</t>
+  </si>
+  <si>
+    <t>prawns,pasta,creme fraiche,lemon juice,peas,broccoli,mushrooms,onions</t>
+  </si>
+  <si>
+    <t>breadcrumbs</t>
   </si>
 </sst>
 </file>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C13BDF-8798-44AF-B45C-20D131201920}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1437,7 +1437,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1597,6 +1597,12 @@
       <c r="B8">
         <v>7</v>
       </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1645,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA2BBE-22FA-49B0-A85E-6A89C35AFE49}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1664,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -1678,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -1708,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1724,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -1740,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1755,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -1815,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -1831,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -1862,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1907,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1922,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2012,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -2027,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2042,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -2087,7 +2093,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -2102,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2132,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -2178,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -2193,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -2208,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2239,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -2344,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -2464,7 +2470,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -2509,7 +2515,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -2539,7 +2545,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -2561,6 +2567,20 @@
       </c>
       <c r="D60">
         <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/meals.xlsx
+++ b/meals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjenk\Documents\personal_github_repos\meal_planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C7DD74-5A12-4F7B-AE6F-9E62BB1D5297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2615106-3686-4F3A-B015-92B41FACD0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meal_df" sheetId="3" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>rocket</t>
   </si>
   <si>
-    <t>soy/teriyakisauce</t>
-  </si>
-  <si>
     <t>cherry tomatoes</t>
   </si>
   <si>
@@ -419,6 +416,9 @@
   </si>
   <si>
     <t>breadcrumbs</t>
+  </si>
+  <si>
+    <t>soy/teriyaki sauce</t>
   </si>
 </sst>
 </file>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C13BDF-8798-44AF-B45C-20D131201920}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -883,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -941,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1140,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1224,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1252,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1653,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA2BBE-22FA-49B0-A85E-6A89C35AFE49}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1670,7 +1670,7 @@
         <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>53</v>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
@@ -1714,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
@@ -1730,7 +1730,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -1746,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -1821,7 +1821,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
@@ -1837,7 +1837,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C12" t="s">
         <v>58</v>
@@ -1868,7 +1868,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>54</v>
@@ -1913,7 +1913,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
         <v>56</v>
@@ -1928,7 +1928,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>63</v>
@@ -2018,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
         <v>56</v>
@@ -2033,7 +2033,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
@@ -2048,7 +2048,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -2093,7 +2093,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
         <v>54</v>
@@ -2108,7 +2108,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" t="s">
         <v>63</v>
@@ -2138,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
         <v>56</v>
@@ -2184,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" t="s">
         <v>58</v>
@@ -2199,7 +2199,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>54</v>
@@ -2214,7 +2214,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -2245,7 +2245,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -2350,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -2425,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -2470,7 +2470,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C54" t="s">
         <v>54</v>
@@ -2515,7 +2515,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>63</v>
@@ -2545,7 +2545,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
         <v>63</v>
@@ -2574,7 +2574,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>
